--- a/rider/weekly/2016_52.xlsx
+++ b/rider/weekly/2016_52.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>354</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>238.56</c:v>
+                  <c:v>244.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.78</c:v>
+                  <c:v>214.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.44</c:v>
+                  <c:v>191.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221</c:v>
+                  <c:v>214.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.44</c:v>
+                  <c:v>227.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.9</c:v>
+                  <c:v>116.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>238.56</v>
+        <v>244.67</v>
       </c>
       <c r="E2">
         <v>97.38</v>
@@ -806,7 +806,7 @@
         <v>99</v>
       </c>
       <c r="D3">
-        <v>213.78</v>
+        <v>214.22</v>
       </c>
       <c r="E3">
         <v>97.54000000000001</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4">
-        <v>200.44</v>
+        <v>191.78</v>
       </c>
       <c r="E4">
         <v>97.7</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>214.12</v>
       </c>
       <c r="E5">
         <v>97.86</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D6">
-        <v>221.44</v>
+        <v>227.44</v>
       </c>
       <c r="E6">
         <v>98.03</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>115.9</v>
+        <v>116.5</v>
       </c>
       <c r="E7">
         <v>98.19</v>
